--- a/data/rfr_strategies.xlsx
+++ b/data/rfr_strategies.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhkwakkel/Documents/GitHub/epa1361_open/final assignment/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6922B60-0097-4946-9B09-4CFD3DA8E495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="9740" windowWidth="20740" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Olburgen" sheetId="1" r:id="rId1"/>
@@ -74,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,9 +117,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -173,7 +164,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,26 +197,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,23 +232,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,23 +407,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -485,8 +440,9 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -500,7 +456,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -514,7 +470,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -530,7 +486,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -544,7 +500,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -556,7 +512,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -582,16 +538,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,7 +558,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>903</v>
       </c>
@@ -610,7 +566,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>922</v>
       </c>
@@ -618,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>932</v>
       </c>
@@ -626,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>940</v>
       </c>
@@ -634,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>947</v>
       </c>
@@ -642,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -656,16 +612,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +632,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>903</v>
       </c>
@@ -685,7 +641,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>922</v>
       </c>
@@ -693,7 +649,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>932</v>
       </c>
@@ -701,7 +657,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>940</v>
       </c>
@@ -709,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>947</v>
       </c>
@@ -717,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -731,16 +687,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +707,7 @@
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>903</v>
       </c>
@@ -760,7 +716,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>922</v>
       </c>
@@ -768,7 +724,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>932</v>
       </c>
@@ -776,7 +732,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>940</v>
       </c>
@@ -784,7 +740,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>947</v>
       </c>
@@ -792,7 +748,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -806,19 +762,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,7 +785,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>903</v>
       </c>
@@ -838,7 +794,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>922</v>
       </c>
@@ -846,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>932</v>
       </c>
@@ -854,7 +810,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>940</v>
       </c>
@@ -862,7 +818,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>947</v>
       </c>
@@ -870,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
